--- a/OB/obsidian添加外置颜色并生成键值.xlsx
+++ b/OB/obsidian添加外置颜色并生成键值.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\z6mdnojc\OB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D9EE6D-E3CA-4662-95B0-6DAF6A41C27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DE4417-AE3E-45FA-918F-97CDCF5FE576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{478ADC5B-5052-4DD3-BB44-C6EF39D42EA8}"/>
   </bookViews>
@@ -898,7 +898,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>&lt;a href="https://gitee.com/darkluna999/z6mdnojc/OB/obsidian</t>
+      <t>&lt;a href="https://gitee.com/darkluna999/z6mdnojc/blob/master/OB/obsidian</t>
     </r>
     <r>
       <rPr>
@@ -1412,7 +1412,7 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="A2:B6"/>
+      <selection activeCell="B8" sqref="A2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1472,7 +1472,7 @@
     <row r="2" spans="1:3 16369:16384" ht="15" x14ac:dyDescent="0.2">
       <c r="C2" t="str">
         <f>XFD1048576&amp;XEO1&amp;A1048575</f>
-        <v>{{    if color == '#ff6666'}} &lt;h3&gt;⚔️悖论&lt;/h3&gt;&lt;blockquote&gt;&lt;p&gt;&lt;span style="background-color: {{color}}80"&gt;{{highlight}}&lt;/p&gt;&lt;p&gt;📍引自：{{citation}}&lt;/p&gt;{{if comment}}&lt;p&gt;✒️批注：{{comment}}&lt;/p &gt;{{endif}}&lt;p&gt;🏷️标签: #{{tags join=' #'}}&lt;/p&gt;&lt;/blockquote&gt;&amp;emsp;  {{elseif color == '#a28ae5'}} &lt;h3&gt;📝生词&lt;/h3&gt;&lt;blockquote&gt;&lt;p&gt;&lt;span style="background-color: {{color}}80"&gt;{{highlight}}&lt;/p&gt;&lt;p&gt;📍引自：{{citation}}&lt;/p&gt;{{if comment}}&lt;p&gt;✒️批注：{{comment}}&lt;/p &gt;{{endif}}&lt;p&gt;🏷️标签: #{{tags join=' #'}}&lt;/p&gt;&lt;/blockquote&gt;&amp;emsp;  {{elseif color == '#2ea8e5'}} &lt;h3&gt;🔬方法&lt;/h3&gt;&lt;blockquote&gt;&lt;p&gt;&lt;span style="background-color: {{color}}80"&gt;{{highlight}}&lt;/p&gt;&lt;p&gt;📍引自：{{citation}}&lt;/p&gt;{{if comment}}&lt;p&gt;✒️批注：{{comment}}&lt;/p &gt;{{endif}}&lt;p&gt;🏷️标签: #{{tags join=' #'}}&lt;/p&gt;&lt;/blockquote&gt;&amp;emsp;  {{elseif color == '#ffd400'}} &lt;h3&gt;📒背景&lt;/h3&gt;&lt;blockquote&gt;&lt;p&gt;&lt;span style="background-color: {{color}}80"&gt;{{highlight}}&lt;/p&gt;&lt;p&gt;📍引自：{{citation}}&lt;/p&gt;{{if comment}}&lt;p&gt;✒️批注：{{comment}}&lt;/p &gt;{{endif}}&lt;p&gt;🏷️标签: #{{tags join=' #'}}&lt;/p&gt;&lt;/blockquote&gt;&amp;emsp;  {{elseif color == '#5fb236'}} &lt;h3&gt;🔭前景&lt;/h3&gt;&lt;blockquote&gt;&lt;p&gt;&lt;span style="background-color: {{color}}80"&gt;{{highlight}}&lt;/p&gt;&lt;p&gt;📍引自：{{citation}}&lt;/p&gt;{{if comment}}&lt;p&gt;✒️批注：{{comment}}&lt;/p &gt;{{endif}}&lt;p&gt;🏷️标签: #{{tags join=' #'}}&lt;/p&gt;&lt;/blockquote&gt;&amp;emsp; {{else }}&lt;h3&gt;颜色 --&gt; {{color}} &lt;-- 暂未添加在识别列表&lt;/h3&gt;&lt;blockquote&gt;&lt;p&gt;&lt;span style="background-color: {{color}}80"&gt;{{highlight}}&lt;/p&gt;&lt;p&gt;📍引自：{{citation}}&lt;/p&gt;{{if comment}}&lt;p&gt;✒️批注：{{comment}}&lt;/p &gt;{{endif}}&lt;p&gt;🏷️标签: #{{tags join=' #'}}&lt;/p&gt;&lt;/blockquote&gt;&lt;p&gt;请参照&lt;a href="https://gitee.com/darkluna999/z6mdnojc/OB/obsidian添加外置颜色并生成键值.xlsx"&gt;gitee格式自行添加条目&lt;/a&gt;并进行替换&lt;/p&gt;&lt;HR&gt;{{endif}}</v>
+        <v>{{    if color == '#ff6666'}} &lt;h3&gt;⚔️悖论&lt;/h3&gt;&lt;blockquote&gt;&lt;p&gt;&lt;span style="background-color: {{color}}80"&gt;{{highlight}}&lt;/p&gt;&lt;p&gt;📍引自：{{citation}}&lt;/p&gt;{{if comment}}&lt;p&gt;✒️批注：{{comment}}&lt;/p &gt;{{endif}}&lt;p&gt;🏷️标签: #{{tags join=' #'}}&lt;/p&gt;&lt;/blockquote&gt;&amp;emsp;  {{elseif color == '#a28ae5'}} &lt;h3&gt;📝生词&lt;/h3&gt;&lt;blockquote&gt;&lt;p&gt;&lt;span style="background-color: {{color}}80"&gt;{{highlight}}&lt;/p&gt;&lt;p&gt;📍引自：{{citation}}&lt;/p&gt;{{if comment}}&lt;p&gt;✒️批注：{{comment}}&lt;/p &gt;{{endif}}&lt;p&gt;🏷️标签: #{{tags join=' #'}}&lt;/p&gt;&lt;/blockquote&gt;&amp;emsp;  {{elseif color == '#2ea8e5'}} &lt;h3&gt;🔬方法&lt;/h3&gt;&lt;blockquote&gt;&lt;p&gt;&lt;span style="background-color: {{color}}80"&gt;{{highlight}}&lt;/p&gt;&lt;p&gt;📍引自：{{citation}}&lt;/p&gt;{{if comment}}&lt;p&gt;✒️批注：{{comment}}&lt;/p &gt;{{endif}}&lt;p&gt;🏷️标签: #{{tags join=' #'}}&lt;/p&gt;&lt;/blockquote&gt;&amp;emsp;  {{elseif color == '#ffd400'}} &lt;h3&gt;📒背景&lt;/h3&gt;&lt;blockquote&gt;&lt;p&gt;&lt;span style="background-color: {{color}}80"&gt;{{highlight}}&lt;/p&gt;&lt;p&gt;📍引自：{{citation}}&lt;/p&gt;{{if comment}}&lt;p&gt;✒️批注：{{comment}}&lt;/p &gt;{{endif}}&lt;p&gt;🏷️标签: #{{tags join=' #'}}&lt;/p&gt;&lt;/blockquote&gt;&amp;emsp;  {{elseif color == '#5fb236'}} &lt;h3&gt;🔭前景&lt;/h3&gt;&lt;blockquote&gt;&lt;p&gt;&lt;span style="background-color: {{color}}80"&gt;{{highlight}}&lt;/p&gt;&lt;p&gt;📍引自：{{citation}}&lt;/p&gt;{{if comment}}&lt;p&gt;✒️批注：{{comment}}&lt;/p &gt;{{endif}}&lt;p&gt;🏷️标签: #{{tags join=' #'}}&lt;/p&gt;&lt;/blockquote&gt;&amp;emsp; {{else }}&lt;h3&gt;颜色 --&gt; {{color}} &lt;-- 暂未添加在识别列表&lt;/h3&gt;&lt;blockquote&gt;&lt;p&gt;&lt;span style="background-color: {{color}}80"&gt;{{highlight}}&lt;/p&gt;&lt;p&gt;📍引自：{{citation}}&lt;/p&gt;{{if comment}}&lt;p&gt;✒️批注：{{comment}}&lt;/p &gt;{{endif}}&lt;p&gt;🏷️标签: #{{tags join=' #'}}&lt;/p&gt;&lt;/blockquote&gt;&lt;p&gt;请参照&lt;a href="https://gitee.com/darkluna999/z6mdnojc/blob/master/OB/obsidian添加外置颜色并生成键值.xlsx"&gt;gitee格式自行添加条目&lt;/a&gt;并进行替换&lt;/p&gt;&lt;HR&gt;{{endif}}</v>
       </c>
       <c r="XEP2" s="1" t="str">
         <f t="shared" ref="XEP2:XEP65" si="0">IF(ISBLANK(A3),"","{{elseif color == '")</f>
@@ -72752,5 +72752,6 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>